--- a/financial_models/opportunities/AMZN_Valuation.xlsx
+++ b/financial_models/opportunities/AMZN_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76882E4D-9CC6-4C69-96A8-C1F9415CEE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39D246B8-4A5E-4716-A560-CEFF411FBC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -1000,6 +1000,9 @@
     <t>Amazon.com, Inc.</t>
   </si>
   <si>
+    <t xml:space="preserve">Superior Cycl. </t>
+  </si>
+  <si>
     <t>C0009</t>
   </si>
   <si>
@@ -1011,9 +1014,6 @@
   <si>
     <t>USD</t>
     <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Superior Cycl. </t>
   </si>
 </sst>
 </file>
@@ -2823,8 +2823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2877,7 +2877,7 @@
         <v>200</v>
       </c>
       <c r="C8" s="188" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E8" s="262"/>
     </row>
@@ -2886,7 +2886,7 @@
         <v>201</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2902,7 +2902,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="189" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2934,7 +2934,7 @@
         <v>236</v>
       </c>
       <c r="C15" s="173" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -4196,10 +4196,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>231.15</v>
+        <v>223.29</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>2430542.3239679998</v>
+        <v>2347894.4214527998</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4453,7 +4453,7 @@
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>12.039838137302786</v>
+        <v>11.630436762614488</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>96.249572278705074</v>
+        <v>92.976712066242939</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4531,20 +4531,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>23.749625076475049</v>
+        <v>0</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>45.017622307826393</v>
+        <v>9.4476250788988043</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>27.940735384088292</v>
+        <v>0</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>39.14575852854469</v>
+        <v>8.2153261555641777</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9696,7 +9696,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11567,17 +11567,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.0389656559764754E-2</v>
+        <v>1.0755381404405137E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.0389656559764754E-2</v>
+        <v>1.0755381404405137E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.0389656559764754E-2</v>
+        <v>1.0755381404405137E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11688,14 +11688,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>56.19879893882154</v>
+        <v>56.300582351675473</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>56.19879893882154</v>
+        <v>56.300582351675473</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11766,21 +11766,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>293796.84150472371</v>
+        <v>294328.94620764826</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>27.940735384088292</v>
+        <v>27.991339728998529</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>27.940735384088292</v>
+        <v>27.991339728998529</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>39.14575852854469</v>
+        <v>39.216656643398153</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11807,18 +11807,18 @@
         <v>139</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>0</v>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
+        <v>-325979</v>
       </c>
       <c r="D99" s="209"/>
       <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>0</v>
+        <v>-35.651530061009069</v>
       </c>
       <c r="F99" s="209"/>
       <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>0</v>
+        <v>-31.001330487833975</v>
       </c>
       <c r="I99" s="211"/>
       <c r="K99" s="24"/>
@@ -11829,27 +11829,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>293796.84150472371</v>
+        <v>-31650.05379235174</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>23.749625076475049</v>
+        <v>0</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>27.940735384088292</v>
+        <v>0</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>27.940735384088292</v>
+        <v>0</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>27.940735384088288</v>
+        <v>0</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>39.14575852854469</v>
+        <v>8.2153261555641777</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11951,27 +11951,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>146898.42075236185</v>
+        <v>0</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>11.874812538237524</v>
+        <v>0</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>13.970367692044146</v>
+        <v>0</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>13.970367692044146</v>
+        <v>0</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>13.970367692044144</v>
+        <v>0</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>19.572879264272345</v>
+        <v>4.1076630777820888</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/AMZN_Valuation.xlsx
+++ b/financial_models/opportunities/AMZN_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DD2B66B-2227-4A13-9255-A5BC74F33855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E57D0FFC-DDFD-4C2E-92A3-E67E810F6A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4630,7 +4630,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4749,20 +4749,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.4322671045851951</v>
+        <v>0</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>15.335956117289872</v>
+        <v>9.4079030481547008</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>5.2144318877472884</v>
+        <v>0</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>13.335614015034672</v>
+        <v>8.1807852592649581</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -11913,21 +11913,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>55.07964760296214</v>
+        <v>56.250994427996048</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>55.07964760296214</v>
+        <v>56.250994427996048</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11998,21 +11998,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>380808.75296828093</v>
+        <v>294069.70978927478</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>36.215762375581264</v>
+        <v>27.966685766993372</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>36.215762375581264</v>
+        <v>27.966685766993372</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>44.336944502868647</v>
+        <v>39.182115747098933</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12062,23 +12062,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.4322671045851951</v>
+        <v>0</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>5.2144318877472884</v>
+        <v>0</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>5.2144318877472884</v>
+        <v>0</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>5.2144318877472884</v>
+        <v>0</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>13.335614015034672</v>
+        <v>8.1807852592649581</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12172,23 +12172,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>2.2161335522925976</v>
+        <v>0</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>2.6072159438736442</v>
+        <v>0</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>2.6072159438736442</v>
+        <v>0</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>2.6072159438736442</v>
+        <v>0</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>6.6678070075173359</v>
+        <v>4.0903926296324791</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/AMZN_Valuation.xlsx
+++ b/financial_models/opportunities/AMZN_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E57D0FFC-DDFD-4C2E-92A3-E67E810F6A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7DA5F7F-B96E-4093-85DA-B5128D1A9964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2585,6 +2585,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2601,9 +2604,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2817,11 +2817,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3036,7 +3036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3061,6 +3061,7 @@
       <c r="C4" s="66" t="s">
         <v>280</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -4314,7 +4315,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4337,6 +4338,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4355,8 +4359,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4392,18 +4396,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>AMZN</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4419,7 +4426,7 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>Amazon.com, Inc.</v>
       </c>
@@ -4448,11 +4455,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
         <v>2387430.822656</v>
       </c>
-      <c r="H5" s="313"/>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4475,11 +4482,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4547,10 +4554,10 @@
         <v>221</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4597,7 +4604,7 @@
         <v>222</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4738,10 +4745,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4749,22 +4756,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0</v>
+        <v>0.39201235002852464</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>9.4079030481547008</v>
+        <v>16.235842396118553</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="312">
+        <v>0.4611910000335584</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>8.1807852592649581</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>14.118123822711787</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5746,15 +5753,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5782,7 +5790,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -11909,7 +11917,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11920,14 +11928,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>56.250994427996048</v>
+        <v>63.282368731495538</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>56.250994427996048</v>
+        <v>63.282368731495538</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11998,21 +12006,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>294069.70978927478</v>
+        <v>330828.42351293401</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>27.966685766993372</v>
+        <v>31.462521487867534</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>27.966685766993372</v>
+        <v>31.462521487867534</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>39.182115747098933</v>
+        <v>45.119454310545763</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12062,23 +12070,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0</v>
+        <v>0.39201235002852464</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0</v>
+        <v>0.4611910000335584</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>0</v>
+        <v>0.4611910000335584</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>0</v>
+        <v>0.4611910000335584</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>8.1807852592649581</v>
+        <v>14.118123822711787</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12172,23 +12180,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>0</v>
+        <v>0.19600617501426232</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>0</v>
+        <v>0.2305955000167792</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>0</v>
+        <v>0.2305955000167792</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>0</v>
+        <v>0.2305955000167792</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>4.0903926296324791</v>
+        <v>7.0590619113558937</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/AMZN_Valuation.xlsx
+++ b/financial_models/opportunities/AMZN_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7DA5F7F-B96E-4093-85DA-B5128D1A9964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD72F165-2413-4D3C-9DBC-5B0A55D9B0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2585,31 +2585,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4396,21 +4396,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>AMZN</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4426,40 +4426,40 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>Amazon.com, Inc.</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>10515000320</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45644</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
         <v>2387430.822656</v>
       </c>
-      <c r="H5" s="314"/>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4482,11 +4482,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4637,7 +4637,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4745,10 +4745,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4756,22 +4756,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0.39201235002852464</v>
+        <v>4.081588752302463</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>16.235842396118553</v>
+        <v>19.28686028962203</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0.4611910000335584</v>
-      </c>
-      <c r="G29" s="313">
+        <v>4.801869120355839</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>14.118123822711787</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>16.771182860540897</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5754,15 +5754,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11135,7 +11135,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11146,11 +11146,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11162,11 +11162,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11921,21 +11921,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>63.282368731495538</v>
+        <v>62.620019884721522</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>63.282368731495538</v>
+        <v>62.620019884721522</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12006,21 +12006,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>330828.42351293401</v>
+        <v>376470.65533713979</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>31.462521487867534</v>
+        <v>35.803199608189814</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>31.462521487867534</v>
+        <v>35.803199608189814</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>45.119454310545763</v>
+        <v>47.772513348374872</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12070,23 +12070,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0.39201235002852464</v>
+        <v>4.081588752302463</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0.4611910000335584</v>
+        <v>4.801869120355839</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>0.4611910000335584</v>
+        <v>4.801869120355839</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>0.4611910000335584</v>
+        <v>4.801869120355839</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>14.118123822711787</v>
+        <v>16.771182860540897</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12180,23 +12180,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>0.19600617501426232</v>
+        <v>2.0407943761512315</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>0.2305955000167792</v>
+        <v>2.4009345601779195</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>0.2305955000167792</v>
+        <v>2.4009345601779195</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>0.2305955000167792</v>
+        <v>2.4009345601779195</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>7.0590619113558937</v>
+        <v>8.3855914302704484</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/AMZN_Valuation.xlsx
+++ b/financial_models/opportunities/AMZN_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29546289-D99D-46AC-A10C-3F3225547BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{136B5120-B091-4557-9E88-99BE72A1F970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2598,6 +2598,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2614,9 +2617,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4430,27 +4430,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>AMZN</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>227.05</v>
+        <v>220.22</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>288</v>
@@ -4460,7 +4460,7 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>Amazon.com, Inc.</v>
       </c>
@@ -4489,11 +4489,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>2387430.822656</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>2315613.3704704</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4516,11 +4516,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>11.826282712847059</v>
+        <v>11.470530627717151</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4728,7 +4728,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>94.542355119532715</v>
+        <v>91.698381169009011</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4779,10 +4779,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4790,22 +4790,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.081588752302463</v>
+        <v>4.1211236137848637</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>19.28686028962203</v>
+        <v>19.358230238688261</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.801869120355839</v>
-      </c>
-      <c r="G29" s="313">
+        <v>4.8483807220998401</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>16.771182860540897</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>16.83324368581588</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5788,15 +5788,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11943,17 +11943,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.0577269825102941E-2</v>
+        <v>1.0905317926571715E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.0577269825102941E-2</v>
+        <v>1.0905317926571715E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.0577269825102941E-2</v>
+        <v>1.0905317926571715E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12064,14 +12064,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>62.620019884721522</v>
+        <v>62.701368966869282</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>62.620019884721522</v>
+        <v>62.701368966869282</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12142,21 +12142,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>376470.65533713979</v>
+        <v>376959.72484436166</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>35.803199608189814</v>
+        <v>35.849711209933815</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>35.803199608189814</v>
+        <v>35.849711209933815</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>47.772513348374872</v>
+        <v>47.834574173649855</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12206,23 +12206,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.081588752302463</v>
+        <v>4.1211236137848637</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.801869120355839</v>
+        <v>4.8483807220998401</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>4.801869120355839</v>
+        <v>4.8483807220998401</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>4.801869120355839</v>
+        <v>4.8483807220998401</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>16.771182860540897</v>
+        <v>16.83324368581588</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12316,23 +12316,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>2.0407943761512315</v>
+        <v>2.0605618068924318</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>2.4009345601779195</v>
+        <v>2.42419036104992</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>2.4009345601779195</v>
+        <v>2.42419036104992</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>2.4009345601779195</v>
+        <v>2.42419036104992</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>8.3855914302704484</v>
+        <v>8.41662184290794</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/AMZN_Valuation.xlsx
+++ b/financial_models/opportunities/AMZN_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{136B5120-B091-4557-9E88-99BE72A1F970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B2CFD67-FAB6-486B-A77F-D7D6EF24AA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2598,31 +2598,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4430,27 +4430,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>AMZN</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>220.22</v>
+        <v>218.46</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>288</v>
@@ -4460,40 +4460,40 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>Amazon.com, Inc.</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>10515000320</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45644</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>2315613.3704704</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>2297106.9699072</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4516,11 +4516,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>11.470530627717151</v>
+        <v>11.378858055267864</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4728,7 +4728,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>91.698381169009011</v>
+        <v>90.965526973852093</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4779,10 +4779,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4790,22 +4790,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>4.1211236137848637</v>
+        <v>4.1317183410987699</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>19.358230238688261</v>
+        <v>19.377356273797837</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>4.8483807220998401</v>
-      </c>
-      <c r="G29" s="314">
+        <v>4.8608451071750238</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>16.83324368581588</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>16.849875020693773</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5788,15 +5788,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11271,7 +11271,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11282,11 +11282,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11298,11 +11298,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11943,17 +11943,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.0905317926571715E-2</v>
+        <v>1.0993175472807941E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.0905317926571715E-2</v>
+        <v>1.0993175472807941E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>1.0905317926571715E-2</v>
+        <v>1.0993175472807941E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12064,14 +12064,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>62.701368966869282</v>
+        <v>62.723169254268193</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>62.701368966869282</v>
+        <v>62.723169254268193</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12142,21 +12142,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>376959.72484436166</v>
+        <v>377090.78785741585</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>35.849711209933815</v>
+        <v>35.862175595008999</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>35.849711209933815</v>
+        <v>35.862175595008999</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>47.834574173649855</v>
+        <v>47.851205508527748</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12206,23 +12206,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>4.1211236137848637</v>
+        <v>4.1317183410987699</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>4.8483807220998401</v>
+        <v>4.8608451071750238</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>4.8483807220998401</v>
+        <v>4.8608451071750238</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>4.8483807220998401</v>
+        <v>4.8608451071750238</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>16.83324368581588</v>
+        <v>16.849875020693773</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12316,23 +12316,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>2.0605618068924318</v>
+        <v>2.0658591705493849</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>2.42419036104992</v>
+        <v>2.4304225535875119</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>2.42419036104992</v>
+        <v>2.4304225535875119</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>2.42419036104992</v>
+        <v>2.4304225535875119</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>8.41662184290794</v>
+        <v>8.4249375103468864</v>
       </c>
       <c r="K106" s="75"/>
     </row>
